--- a/src/test/resources/data/testData.xlsx
+++ b/src/test/resources/data/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a877d6f23a3de7d5/Lapto/Cursos/Selenium 4/ClasesCarlos/Sesion_X/Selenium_Tarea-7/src/test/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="13_ncr:1_{B664314F-848F-7946-9835-BC8806769DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B532C8CE-C584-467A-B901-AE39F7875037}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{1478D1C1-88AE-4E2F-BD02-DE28CDE521A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBE23FF6-6416-4E0E-AE0D-352DE95FB1D4}"/>
   <bookViews>
-    <workbookView xWindow="2670" yWindow="0" windowWidth="15405" windowHeight="10920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="errorMessages" sheetId="5" r:id="rId1"/>
@@ -58,15 +58,9 @@
     <t>password</t>
   </si>
   <si>
-    <t>u1000@correo.com</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
-    <t>u1000</t>
-  </si>
-  <si>
     <t>noel</t>
   </si>
   <si>
@@ -83,6 +77,12 @@
   </si>
   <si>
     <t>a583up48pq</t>
+  </si>
+  <si>
+    <t>u11000</t>
+  </si>
+  <si>
+    <t>u11000@correo.com</t>
   </si>
 </sst>
 </file>
@@ -458,7 +458,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -477,7 +477,7 @@
         <v>8</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>9</v>
@@ -488,10 +488,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D2" s="5">
         <v>123</v>
@@ -502,13 +502,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -516,13 +516,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/src/test/resources/data/testData.xlsx
+++ b/src/test/resources/data/testData.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a877d6f23a3de7d5/Lapto/Cursos/Selenium 4/ClasesCarlos/Sesion_X/Selenium_Tarea-7/src/test/resources/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jddio\OneDrive\Lapto\Cursos\Selenium 4\ClasesCarlos\Sesion_X\Selenium_Tarea-7\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{1478D1C1-88AE-4E2F-BD02-DE28CDE521A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBE23FF6-6416-4E0E-AE0D-352DE95FB1D4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E6F86C-5ABB-4DBC-8A02-6B81640532D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="errorMessages" sheetId="5" r:id="rId1"/>
     <sheet name="credentials" sheetId="6" r:id="rId2"/>
+    <sheet name="comments" sheetId="9" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>key</t>
   </si>
@@ -79,10 +80,16 @@
     <t>a583up48pq</t>
   </si>
   <si>
-    <t>u11000</t>
-  </si>
-  <si>
-    <t>u11000@correo.com</t>
+    <t>selenium</t>
+  </si>
+  <si>
+    <t>us1@correo</t>
+  </si>
+  <si>
+    <t>us1</t>
+  </si>
+  <si>
+    <t>comments</t>
   </si>
 </sst>
 </file>
@@ -174,7 +181,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -188,6 +195,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -407,7 +417,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -457,8 +467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C97E00-3183-42ED-AE1E-B870DDC4CCBC}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -487,8 +497,8 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>17</v>
+      <c r="B2" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>18</v>
@@ -536,8 +546,40 @@
     <hyperlink ref="C2" r:id="rId1" xr:uid="{813BEAA8-03D0-4811-8720-7BBA25737384}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{7E7D817D-0C5D-4A67-ADD9-3168A9DB74AD}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{B59B2763-5D67-4B39-8079-865591446C5A}"/>
+    <hyperlink ref="B2" r:id="rId4" display="us1@correo" xr:uid="{F233807F-6651-4FEB-AB19-6F0E397E7F7D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{267D909B-4BBB-40EE-A9FD-0B79219F9C1E}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>